--- a/data/schub/small/teachers.xlsx
+++ b/data/schub/small/teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layo\Desktop\ALX\schub\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77948FA-48A8-4751-9D7F-884EB59D0AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06F2565-A7D6-4819-B6E8-341FD0CCF2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="1350" windowWidth="21600" windowHeight="12405" xr2:uid="{FB087A07-6B2B-4F01-A858-8DC05C0F35D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FB087A07-6B2B-4F01-A858-8DC05C0F35D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>department_id</t>
   </si>
@@ -148,6 +148,69 @@
   </si>
   <si>
     <t>53af4926-52ee-41d0-9acc-ae7230300003</t>
+  </si>
+  <si>
+    <t>NORRINDPWD</t>
+  </si>
+  <si>
+    <t>LARISJPWD</t>
+  </si>
+  <si>
+    <t>GRAEME-JAMESCPWD</t>
+  </si>
+  <si>
+    <t>KAHNEILLPWD</t>
+  </si>
+  <si>
+    <t>BARTOLOMEOEPWD</t>
+  </si>
+  <si>
+    <t>TIAREKPWD</t>
+  </si>
+  <si>
+    <t>ILGVARSRPWD</t>
+  </si>
+  <si>
+    <t>GIOCONDORPWD</t>
+  </si>
+  <si>
+    <t>OLIVERSLPWD</t>
+  </si>
+  <si>
+    <t>PAHULTPWD</t>
+  </si>
+  <si>
+    <t>JEMMIEIPWD</t>
+  </si>
+  <si>
+    <t>MAZIAPWD</t>
+  </si>
+  <si>
+    <t>DEKOTATPWD</t>
+  </si>
+  <si>
+    <t>MELVENDPWD</t>
+  </si>
+  <si>
+    <t>DJUMARPWD</t>
+  </si>
+  <si>
+    <t>recovery_answer</t>
+  </si>
+  <si>
+    <t>recovery_question</t>
+  </si>
+  <si>
+    <t>What is your mother's maiden name?</t>
+  </si>
+  <si>
+    <t>What is the name of your childhood best friend?</t>
+  </si>
+  <si>
+    <t>What street did you live as a child?</t>
+  </si>
+  <si>
+    <t>What is your favorite football team?</t>
   </si>
 </sst>
 </file>
@@ -500,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4104E11B-FEC4-423D-A2B7-D25B267107CF}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,9 +577,11 @@
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,8 +603,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -564,8 +635,14 @@
         <f>CONCATENATE(D2, LEFT(E2, 1), "PWD")</f>
         <v>NORRINDPWD</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -590,8 +667,14 @@
         <f>CONCATENATE(D3, LEFT(E3, 1), "PWD")</f>
         <v>LARISJPWD</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -613,11 +696,17 @@
         <v>GRAEME-JAMESC@schub.com</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G16" si="2">CONCATENATE(D4, LEFT(E4, 1), "PWD")</f>
+        <f t="shared" ref="G4:I16" si="2">CONCATENATE(D4, LEFT(E4, 1), "PWD")</f>
         <v>GRAEME-JAMESCPWD</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -642,8 +731,14 @@
         <f t="shared" si="2"/>
         <v>KAHNEILLPWD</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -668,8 +763,14 @@
         <f t="shared" si="2"/>
         <v>BARTOLOMEOEPWD</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -694,8 +795,14 @@
         <f t="shared" si="2"/>
         <v>TIAREKPWD</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -720,8 +827,14 @@
         <f t="shared" si="2"/>
         <v>ILGVARSRPWD</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -746,8 +859,14 @@
         <f t="shared" si="2"/>
         <v>GIOCONDORPWD</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -772,8 +891,14 @@
         <f t="shared" si="2"/>
         <v>OLIVERSLPWD</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -798,8 +923,14 @@
         <f t="shared" si="2"/>
         <v>PAHULTPWD</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -824,8 +955,14 @@
         <f t="shared" si="2"/>
         <v>JEMMIEIPWD</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -850,8 +987,14 @@
         <f t="shared" si="2"/>
         <v>MAZIAPWD</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -876,8 +1019,14 @@
         <f t="shared" si="2"/>
         <v>DEKOTATPWD</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -902,8 +1051,14 @@
         <f t="shared" si="2"/>
         <v>MELVENDPWD</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -927,6 +1082,12 @@
       <c r="G16" t="str">
         <f t="shared" si="2"/>
         <v>DJUMARPWD</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
